--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2504826.511754914</v>
+        <v>2502938.930238512</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>314.6536463267108</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>116.3601298583505</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>65.29997400339114</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>43.63030091584125</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>351.5404956591543</v>
       </c>
       <c r="F5" t="n">
-        <v>67.3378365078426</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>129.0036366911899</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>208.279329433658</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>360.4053066904607</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>158.4785919752546</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.03250833503017</v>
+        <v>59.7268375758688</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560523</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>49.15010423076747</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1819,7 +1819,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151916</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>145.5209865847975</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>207.0920728594999</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2290,10 +2290,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>221.9323490168577</v>
+        <v>57.56452900498754</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>188.4590648403941</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404426</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>39.08079428425675</v>
+        <v>78.67531269948017</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522959</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857146</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C2" t="n">
-        <v>550.6130699431321</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>192.3473713363816</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610022</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C4" t="n">
-        <v>270.0191909330953</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D4" t="n">
-        <v>119.9025515207595</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E4" t="n">
-        <v>119.9025515207595</v>
+        <v>402.6523129118469</v>
       </c>
       <c r="F4" t="n">
-        <v>119.9025515207595</v>
+        <v>255.7623654139366</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>255.7623654139366</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>98.01399284646672</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>98.01399284646672</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D5" t="n">
-        <v>135.884402556362</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="E5" t="n">
-        <v>135.884402556362</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084171</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084171</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>500.1394333084171</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>500.1394333084171</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>353.2494858105067</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>184.2496855488391</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4765,10 +4765,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084171</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1277.784045540434</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>919.5183469336832</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.6820060902423</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>517.7458231623355</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850828</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850828</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>294.7767549727471</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>146.863661390354</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850828</v>
       </c>
     </row>
     <row r="14">
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,19 +5461,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765185</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706317</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>570.0299571250974</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>816.7950850315615</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1124.115218311523</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975556</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1240.850271579528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1017.064856369034</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U19" t="n">
-        <v>1017.064856369034</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,19 +5926,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
         <v>869.3083006011507</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,22 +6172,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.956765431391</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>506.855107188543</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
         <v>278.8655562905255</v>
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823777</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,46 +6388,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1308.553578799929</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1308.553578799929</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.424940013487</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V28" t="n">
-        <v>764.7404518075998</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>475.3232817706391</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726218</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6476,22 +6476,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163774</v>
+        <v>439.5324299542198</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698412</v>
+        <v>439.5324299542198</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388762</v>
+        <v>439.5324299542198</v>
       </c>
       <c r="E31" t="n">
-        <v>304.8808237378538</v>
+        <v>439.5324299542198</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557763</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
         <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652463</v>
+        <v>730.4517433652476</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652463</v>
+        <v>565.4200295030887</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,10 +6856,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6868,25 +6868,25 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045198</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010308</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7166,13 +7166,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7433,7 +7433,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7503,13 +7503,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,10 +7591,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7655,19 +7655,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,7 +7807,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K18" t="n">
-        <v>159.0121003135246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>96.27094379216378</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>52.39982339880576</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>14.45548819888927</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>64.30500338171963</v>
+        <v>228.6728233935898</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>9.461745143209214</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.3938331833854</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>51.13699711011748</v>
+        <v>11.54247869489397</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>7.531752999057062e-13</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>848243.2574886672</v>
+        <v>848243.2574886673</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196777</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196778</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="K2" t="n">
-        <v>589892.0991506411</v>
+        <v>589892.0991506414</v>
       </c>
       <c r="L2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="N2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086667</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26424,16 +26424,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143916</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>15045.66962143911</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143911</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,16 +26442,16 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563562</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275959</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,7 +26482,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,19 +26491,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.6323775713</v>
+        <v>-234346.6323775716</v>
       </c>
       <c r="C6" t="n">
         <v>355621.2468369727</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.2468369728</v>
+        <v>355621.2468369727</v>
       </c>
       <c r="E6" t="n">
-        <v>-65200.89542737411</v>
+        <v>-65298.3545533461</v>
       </c>
       <c r="F6" t="n">
-        <v>459959.141049522</v>
+        <v>459861.6819235498</v>
       </c>
       <c r="G6" t="n">
-        <v>459959.141049522</v>
+        <v>459861.6819235499</v>
       </c>
       <c r="H6" t="n">
-        <v>459959.1410495221</v>
+        <v>459861.6819235499</v>
       </c>
       <c r="I6" t="n">
-        <v>459959.1410495219</v>
+        <v>459861.6819235498</v>
       </c>
       <c r="J6" t="n">
-        <v>283535.921856929</v>
+        <v>283438.462730957</v>
       </c>
       <c r="K6" t="n">
-        <v>415890.9931819371</v>
+        <v>415872.4994440029</v>
       </c>
       <c r="L6" t="n">
-        <v>449732.813667953</v>
+        <v>449732.8136679532</v>
       </c>
       <c r="M6" t="n">
-        <v>325274.7052349825</v>
+        <v>325274.7052349827</v>
       </c>
       <c r="N6" t="n">
-        <v>460075.7204688199</v>
+        <v>460075.7204688198</v>
       </c>
       <c r="O6" t="n">
-        <v>460075.7204688196</v>
+        <v>460075.7204688198</v>
       </c>
       <c r="P6" t="n">
-        <v>415913.1151659739</v>
+        <v>415913.115165974</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26750,7 +26750,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,10 +26759,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>68.08019533676975</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>265.5702402139112</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>102.0098282556598</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>1.569658272695754</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>30.38987441310746</v>
       </c>
       <c r="F5" t="n">
-        <v>339.5382092338688</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.16725215060524</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>10.30532391843681</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>21.52506338180109</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>190.7623767421584</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.7994718469071</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.294324647460598e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28375,13 +28375,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K18" t="n">
-        <v>309.5875389014639</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
